--- a/biology/Botanique/Homalium_deplanchei/Homalium_deplanchei.xlsx
+++ b/biology/Botanique/Homalium_deplanchei/Homalium_deplanchei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homalium deplanchei est une espèce de plantes à fleurs de la famille des Flacourtiaceae, ou des Salicaceae selon la classification phylogénétique. Il est un arbre endémique des Forêts sèches de Nouvelle-Calédonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d’espèce deplanchei lui a été donné en l’honneur du botaniste Émile Deplanche (1824-1875). Le nom de genre Homalium dérive du grec « omalos » qui signifie égal, régulier. Il existe 18 espèces de ce genre en Nouvelle-Calédonie et 180 dans le monde, uniquement en région tropicale.
 </t>
@@ -542,17 +556,11 @@
           <t>Aspect et forme générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fait partie des plus grands arbres de la forêt sèche. Il a une cime bien étalée, avec des branches rampantes, très fines.
-Taille
-Il peut atteindre 10 mètres de haut, mais se cantonne à 5-6 mètres en forêt.
-Écorce
-L’écorce est grisâtre, légèrement rugueuse, couverte de lenticelles de forme très allongée et de couleur blanche.
-Feuilles
-Les feuilles sont coriaces, de forme allongée, et légèrement arrondie. Leur bordure est toujours ondulée, voire dentelée. Elles mesurent 4 à 8 cm de long pour 2 à 4 cm de large. Leur couleur est vert foncé brillant dessus et vert clair brillant dessous. La nervure principale est plus ou moins rougeâtre et parfois même les nervures secondaires. Le pétiole des feuilles est épais et rougeâtre et peut atteindre 10 cm de long.
-Fleurs
-Les fleurs sont regroupées sur des tiges plus longues que les feuilles (12 cm maximum) qui pendent au bout des branches. Les fleurs sont serrées et petites (3 mm de long). De couleur blanche à blanc verdâtre, elles ne sentent pas bon.
 </t>
         </is>
       </c>
@@ -578,12 +586,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Aspect et forme générale</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La floraison ne semble pas être liée à une saison. Les fruits sont des capsules de 5 à 6 mm de long. Ils ont le sommet allongé, sont coriaces et s’ouvrent au sommet par des valves qui libèrent des graines peu nombreuses.
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut atteindre 10 mètres de haut, mais se cantonne à 5-6 mètres en forêt.
 </t>
         </is>
       </c>
@@ -609,10 +623,156 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aspect et forme générale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Écorce</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’écorce est grisâtre, légèrement rugueuse, couverte de lenticelles de forme très allongée et de couleur blanche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Homalium_deplanchei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Homalium_deplanchei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aspect et forme générale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont coriaces, de forme allongée, et légèrement arrondie. Leur bordure est toujours ondulée, voire dentelée. Elles mesurent 4 à 8 cm de long pour 2 à 4 cm de large. Leur couleur est vert foncé brillant dessus et vert clair brillant dessous. La nervure principale est plus ou moins rougeâtre et parfois même les nervures secondaires. Le pétiole des feuilles est épais et rougeâtre et peut atteindre 10 cm de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Homalium_deplanchei</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Homalium_deplanchei</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aspect et forme générale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont regroupées sur des tiges plus longues que les feuilles (12 cm maximum) qui pendent au bout des branches. Les fleurs sont serrées et petites (3 mm de long). De couleur blanche à blanc verdâtre, elles ne sentent pas bon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Homalium_deplanchei</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Homalium_deplanchei</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison ne semble pas être liée à une saison. Les fruits sont des capsules de 5 à 6 mm de long. Ils ont le sommet allongé, sont coriaces et s’ouvrent au sommet par des valves qui libèrent des graines peu nombreuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Homalium_deplanchei</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Homalium_deplanchei</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Place dans la forêt sèche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est localisé dans les forêts plus ou moins denses de basse et moyenne altitude. Il fournit un bon bois. Il n’est pas menacé par les cerfs qui ne consomment pas ses feuilles : dans les régions où le cerf est particulièrement abondant, il existe des forêts qui ne sont composées que de cet arbre !
 </t>
